--- a/target/classes/br/com/rsinet/hub_TDD/testdata/TestData.xlsx
+++ b/target/classes/br/com/rsinet/hub_TDD/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.cardoso\workspace\hub_TDD-master\hub_TDD-master\src\main\java\br\com\rsinet\hub_TDD\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EADD27-9D57-4C6C-87CD-AA1EF32F51ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3754094F-7750-416B-9D55-D9B1C871DE99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="1470" windowWidth="15375" windowHeight="7875" xr2:uid="{4946B6CB-2A38-4F45-9737-E4F37AC7D668}"/>
   </bookViews>
@@ -119,7 +119,7 @@
     <t>Bose Soundlink Bluetooth Speaker III</t>
   </si>
   <si>
-    <t>GabrielTeste65</t>
+    <t>GabrielTeste66</t>
   </si>
 </sst>
 </file>

--- a/target/classes/br/com/rsinet/hub_TDD/testdata/TestData.xlsx
+++ b/target/classes/br/com/rsinet/hub_TDD/testdata/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.cardoso\workspace\hub_TDD-master\hub_TDD-master\src\main\java\br\com\rsinet\hub_TDD\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.cardoso\workspace\hub_TDD-master\AvaliacaoTDD\src\main\java\br\com\rsinet\hub_TDD\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3754094F-7750-416B-9D55-D9B1C871DE99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FA1C1C-EEF0-4E18-8A92-AF9AE9EDADD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="15375" windowHeight="7875" xr2:uid="{4946B6CB-2A38-4F45-9737-E4F37AC7D668}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="15375" windowHeight="7875" xr2:uid="{4946B6CB-2A38-4F45-9737-E4F37AC7D668}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <t>Bose Soundlink Bluetooth Speaker III</t>
   </si>
   <si>
-    <t>GabrielTeste66</t>
+    <t>GabrielTeste67</t>
   </si>
 </sst>
 </file>
